--- a/data/Wildberries_Очки_с_шипами_Отчет_по_трендам_26_01_2025_24_02_2025.xlsx
+++ b/data/Wildberries_Очки_с_шипами_Отчет_по_трендам_26_01_2025_24_02_2025.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0DF54A-1F88-4539-A01D-80EF1B1A8B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72755C9-B0CB-4C64-ABAD-EB6448CC95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ag-grid" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Неделя</t>
   </si>
@@ -716,9 +727,6 @@
   </si>
   <si>
     <t>target_market</t>
-  </si>
-  <si>
-    <t>18-25</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1086,7 @@
   <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,8 +1112,9 @@
       <c r="B2">
         <v>329</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>232</v>
+      <c r="C2" s="1">
+        <f>74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,8 +1124,9 @@
       <c r="B3">
         <v>285</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C66" si="0">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,8 +1136,9 @@
       <c r="B4">
         <v>392</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1137,8 +1148,9 @@
       <c r="B5">
         <v>207</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>232</v>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,8 +1160,9 @@
       <c r="B6">
         <v>153</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>232</v>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1159,8 +1172,9 @@
       <c r="B7">
         <v>92</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>232</v>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,8 +1184,9 @@
       <c r="B8">
         <v>105</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>232</v>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1181,8 +1196,9 @@
       <c r="B9">
         <v>179</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>232</v>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1192,8 +1208,9 @@
       <c r="B10">
         <v>127</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>232</v>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1203,8 +1220,9 @@
       <c r="B11">
         <v>366</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>232</v>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,8 +1232,9 @@
       <c r="B12">
         <v>217</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>232</v>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,8 +1244,9 @@
       <c r="B13">
         <v>184</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>232</v>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,8 +1256,9 @@
       <c r="B14">
         <v>93</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>232</v>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,8 +1268,9 @@
       <c r="B15">
         <v>153</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>232</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,8 +1280,9 @@
       <c r="B16">
         <v>169</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>232</v>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,8 +1292,9 @@
       <c r="B17">
         <v>160</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>232</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,8 +1304,9 @@
       <c r="B18">
         <v>233</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>232</v>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,8 +1316,9 @@
       <c r="B19">
         <v>221</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>232</v>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,8 +1328,9 @@
       <c r="B20">
         <v>192</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>232</v>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,8 +1340,9 @@
       <c r="B21">
         <v>196</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>232</v>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,8 +1352,9 @@
       <c r="B22">
         <v>104</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>232</v>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,8 +1364,9 @@
       <c r="B23">
         <v>137</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>232</v>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,8 +1376,9 @@
       <c r="B24">
         <v>159</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>232</v>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,8 +1388,9 @@
       <c r="B25">
         <v>170</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>232</v>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,8 +1400,9 @@
       <c r="B26">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>232</v>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,8 +1412,9 @@
       <c r="B27">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>232</v>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,8 +1424,9 @@
       <c r="B28">
         <v>76</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>232</v>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,8 +1436,9 @@
       <c r="B29">
         <v>126</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>232</v>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,8 +1448,9 @@
       <c r="B30">
         <v>129</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>232</v>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,8 +1460,9 @@
       <c r="B31">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>232</v>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,8 +1472,9 @@
       <c r="B32">
         <v>186</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>232</v>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,8 +1484,9 @@
       <c r="B33">
         <v>281</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>232</v>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,8 +1496,9 @@
       <c r="B34">
         <v>255</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>232</v>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,8 +1508,9 @@
       <c r="B35">
         <v>139</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>232</v>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,8 +1520,9 @@
       <c r="B36">
         <v>249</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>232</v>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,8 +1532,9 @@
       <c r="B37">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>232</v>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,8 +1544,9 @@
       <c r="B38">
         <v>280</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>232</v>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,8 +1556,9 @@
       <c r="B39">
         <v>230</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>232</v>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,8 +1568,9 @@
       <c r="B40">
         <v>129</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>232</v>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,8 +1580,9 @@
       <c r="B41">
         <v>103</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>232</v>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,8 +1592,9 @@
       <c r="B42">
         <v>98</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>232</v>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,8 +1604,9 @@
       <c r="B43">
         <v>30</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>232</v>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,8 +1616,9 @@
       <c r="B44">
         <v>15</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>232</v>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,8 +1628,9 @@
       <c r="B45">
         <v>12</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>232</v>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,8 +1640,9 @@
       <c r="B46">
         <v>63</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>232</v>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,8 +1652,9 @@
       <c r="B47">
         <v>41</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>232</v>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,8 +1664,9 @@
       <c r="B48">
         <v>34</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>232</v>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,8 +1676,9 @@
       <c r="B49">
         <v>22</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>232</v>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,8 +1688,9 @@
       <c r="B50">
         <v>29</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>232</v>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,8 +1700,9 @@
       <c r="B51">
         <v>29</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>232</v>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,8 +1712,9 @@
       <c r="B52">
         <v>30</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>232</v>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,8 +1724,9 @@
       <c r="B53">
         <v>15</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>232</v>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,8 +1736,9 @@
       <c r="B54">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>232</v>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,8 +1748,9 @@
       <c r="B55">
         <v>32</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>232</v>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,8 +1760,9 @@
       <c r="B56">
         <v>33</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>232</v>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,8 +1772,9 @@
       <c r="B57">
         <v>20</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>232</v>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,8 +1784,9 @@
       <c r="B58">
         <v>17</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>232</v>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,8 +1796,9 @@
       <c r="B59">
         <v>13</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>232</v>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,8 +1808,9 @@
       <c r="B60">
         <v>28</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>232</v>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,8 +1820,9 @@
       <c r="B61">
         <v>12</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>232</v>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,8 +1832,9 @@
       <c r="B62">
         <v>15</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>232</v>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,8 +1844,9 @@
       <c r="B63">
         <v>22</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>232</v>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,8 +1856,9 @@
       <c r="B64">
         <v>24</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>232</v>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,8 +1868,9 @@
       <c r="B65">
         <v>15</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>232</v>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,8 +1880,9 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>232</v>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,8 +1892,9 @@
       <c r="B67">
         <v>10</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>232</v>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C130" si="1">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,8 +1904,9 @@
       <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>232</v>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,8 +1916,9 @@
       <c r="B69">
         <v>12</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>232</v>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,8 +1928,9 @@
       <c r="B70">
         <v>9</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>232</v>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,8 +1940,9 @@
       <c r="B71">
         <v>11</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>232</v>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,8 +1952,9 @@
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>232</v>
+      <c r="C72" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,8 +1964,9 @@
       <c r="B73">
         <v>4</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>232</v>
+      <c r="C73" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,8 +1976,9 @@
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>232</v>
+      <c r="C74" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,8 +1988,9 @@
       <c r="B75">
         <v>4</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>232</v>
+      <c r="C75" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,8 +2000,9 @@
       <c r="B76">
         <v>5</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>232</v>
+      <c r="C76" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,8 +2012,9 @@
       <c r="B77">
         <v>5</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>232</v>
+      <c r="C77" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,8 +2024,9 @@
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>232</v>
+      <c r="C78" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,8 +2036,9 @@
       <c r="B79">
         <v>8</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>232</v>
+      <c r="C79" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,8 +2048,9 @@
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>232</v>
+      <c r="C80" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,8 +2060,9 @@
       <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>232</v>
+      <c r="C81" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,8 +2072,9 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>232</v>
+      <c r="C82" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,8 +2084,9 @@
       <c r="B83">
         <v>7</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>232</v>
+      <c r="C83" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,8 +2096,9 @@
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>232</v>
+      <c r="C84" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,8 +2108,9 @@
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>232</v>
+      <c r="C85" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,8 +2120,9 @@
       <c r="B86">
         <v>11</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>232</v>
+      <c r="C86" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,8 +2132,9 @@
       <c r="B87">
         <v>8</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>232</v>
+      <c r="C87" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,8 +2144,9 @@
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>232</v>
+      <c r="C88" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,8 +2156,9 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>232</v>
+      <c r="C89" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,8 +2168,9 @@
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>232</v>
+      <c r="C90" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,8 +2180,9 @@
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>232</v>
+      <c r="C91" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,8 +2192,9 @@
       <c r="B92">
         <v>5</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>232</v>
+      <c r="C92" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,8 +2204,9 @@
       <c r="B93">
         <v>6</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>232</v>
+      <c r="C93" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,8 +2216,9 @@
       <c r="B94">
         <v>4</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>232</v>
+      <c r="C94" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,8 +2228,9 @@
       <c r="B95">
         <v>5</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>232</v>
+      <c r="C95" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,8 +2240,9 @@
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>232</v>
+      <c r="C96" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2149,8 +2252,9 @@
       <c r="B97">
         <v>9</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>232</v>
+      <c r="C97" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2160,8 +2264,9 @@
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>232</v>
+      <c r="C98" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,8 +2276,9 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>232</v>
+      <c r="C99" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,8 +2288,9 @@
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>232</v>
+      <c r="C100" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,8 +2300,9 @@
       <c r="B101">
         <v>2</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>232</v>
+      <c r="C101" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,8 +2312,9 @@
       <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>232</v>
+      <c r="C102" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,8 +2324,9 @@
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>232</v>
+      <c r="C103" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,8 +2336,9 @@
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>232</v>
+      <c r="C104" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,8 +2348,9 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>232</v>
+      <c r="C105" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,8 +2360,9 @@
       <c r="B106">
         <v>0</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>232</v>
+      <c r="C106" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,8 +2372,9 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>232</v>
+      <c r="C107" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,8 +2384,9 @@
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>232</v>
+      <c r="C108" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,8 +2396,9 @@
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>232</v>
+      <c r="C109" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,8 +2408,9 @@
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>232</v>
+      <c r="C110" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,8 +2420,9 @@
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>232</v>
+      <c r="C111" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,8 +2432,9 @@
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>232</v>
+      <c r="C112" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,8 +2444,9 @@
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>232</v>
+      <c r="C113" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,8 +2456,9 @@
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>232</v>
+      <c r="C114" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,8 +2468,9 @@
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>232</v>
+      <c r="C115" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,8 +2480,9 @@
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>232</v>
+      <c r="C116" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,8 +2492,9 @@
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>232</v>
+      <c r="C117" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,8 +2504,9 @@
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>232</v>
+      <c r="C118" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,8 +2516,9 @@
       <c r="B119">
         <v>0</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>232</v>
+      <c r="C119" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,8 +2528,9 @@
       <c r="B120">
         <v>0</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>232</v>
+      <c r="C120" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,8 +2540,9 @@
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>232</v>
+      <c r="C121" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,8 +2552,9 @@
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>232</v>
+      <c r="C122" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,8 +2564,9 @@
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>232</v>
+      <c r="C123" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,8 +2576,9 @@
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>232</v>
+      <c r="C124" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,8 +2588,9 @@
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>232</v>
+      <c r="C125" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,8 +2600,9 @@
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>232</v>
+      <c r="C126" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,8 +2612,9 @@
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>232</v>
+      <c r="C127" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,8 +2624,9 @@
       <c r="B128">
         <v>2</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>232</v>
+      <c r="C128" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,8 +2636,9 @@
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>232</v>
+      <c r="C129" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,8 +2648,9 @@
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>232</v>
+      <c r="C130" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,8 +2660,9 @@
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>232</v>
+      <c r="C131" s="1">
+        <f t="shared" ref="C131:C194" si="2">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,8 +2672,9 @@
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>232</v>
+      <c r="C132" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,8 +2684,9 @@
       <c r="B133">
         <v>0</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>232</v>
+      <c r="C133" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,8 +2696,9 @@
       <c r="B134">
         <v>0</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>232</v>
+      <c r="C134" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,8 +2708,9 @@
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>232</v>
+      <c r="C135" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,8 +2720,9 @@
       <c r="B136">
         <v>0</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>232</v>
+      <c r="C136" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,8 +2732,9 @@
       <c r="B137">
         <v>0</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>232</v>
+      <c r="C137" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2600,8 +2744,9 @@
       <c r="B138">
         <v>0</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>232</v>
+      <c r="C138" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,8 +2756,9 @@
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>232</v>
+      <c r="C139" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,8 +2768,9 @@
       <c r="B140">
         <v>0</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>232</v>
+      <c r="C140" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,8 +2780,9 @@
       <c r="B141">
         <v>0</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>232</v>
+      <c r="C141" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,8 +2792,9 @@
       <c r="B142">
         <v>0</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>232</v>
+      <c r="C142" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,8 +2804,9 @@
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>232</v>
+      <c r="C143" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2666,8 +2816,9 @@
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>232</v>
+      <c r="C144" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2677,8 +2828,9 @@
       <c r="B145">
         <v>2</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>232</v>
+      <c r="C145" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,8 +2840,9 @@
       <c r="B146">
         <v>0</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>232</v>
+      <c r="C146" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,8 +2852,9 @@
       <c r="B147">
         <v>0</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>232</v>
+      <c r="C147" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,8 +2864,9 @@
       <c r="B148">
         <v>3</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>232</v>
+      <c r="C148" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,8 +2876,9 @@
       <c r="B149">
         <v>0</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>232</v>
+      <c r="C149" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2732,8 +2888,9 @@
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>232</v>
+      <c r="C150" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,8 +2900,9 @@
       <c r="B151">
         <v>2</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>232</v>
+      <c r="C151" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,8 +2912,9 @@
       <c r="B152">
         <v>0</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>232</v>
+      <c r="C152" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2765,8 +2924,9 @@
       <c r="B153">
         <v>0</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>232</v>
+      <c r="C153" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,8 +2936,9 @@
       <c r="B154">
         <v>0</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>232</v>
+      <c r="C154" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2787,8 +2948,9 @@
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>232</v>
+      <c r="C155" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,8 +2960,9 @@
       <c r="B156">
         <v>0</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>232</v>
+      <c r="C156" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,8 +2972,9 @@
       <c r="B157">
         <v>3</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>232</v>
+      <c r="C157" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,8 +2984,9 @@
       <c r="B158">
         <v>0</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>232</v>
+      <c r="C158" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2831,8 +2996,9 @@
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>232</v>
+      <c r="C159" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,8 +3008,9 @@
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>232</v>
+      <c r="C160" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,8 +3020,9 @@
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>232</v>
+      <c r="C161" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,8 +3032,9 @@
       <c r="B162">
         <v>0</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>232</v>
+      <c r="C162" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2875,8 +3044,9 @@
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>232</v>
+      <c r="C163" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,8 +3056,9 @@
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>232</v>
+      <c r="C164" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,8 +3068,9 @@
       <c r="B165">
         <v>0</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>232</v>
+      <c r="C165" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,8 +3080,9 @@
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>232</v>
+      <c r="C166" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,8 +3092,9 @@
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>232</v>
+      <c r="C167" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,8 +3104,9 @@
       <c r="B168">
         <v>0</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>232</v>
+      <c r="C168" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2941,8 +3116,9 @@
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>232</v>
+      <c r="C169" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,8 +3128,9 @@
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>232</v>
+      <c r="C170" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,8 +3140,9 @@
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>232</v>
+      <c r="C171" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,8 +3152,9 @@
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>232</v>
+      <c r="C172" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,8 +3164,9 @@
       <c r="B173">
         <v>0</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>232</v>
+      <c r="C173" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,8 +3176,9 @@
       <c r="B174">
         <v>0</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>232</v>
+      <c r="C174" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,8 +3188,9 @@
       <c r="B175">
         <v>1</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>232</v>
+      <c r="C175" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,8 +3200,9 @@
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>232</v>
+      <c r="C176" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,8 +3212,9 @@
       <c r="B177">
         <v>7</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>232</v>
+      <c r="C177" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,8 +3224,9 @@
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>232</v>
+      <c r="C178" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,8 +3236,9 @@
       <c r="B179">
         <v>0</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>232</v>
+      <c r="C179" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,8 +3248,9 @@
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>232</v>
+      <c r="C180" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,8 +3260,9 @@
       <c r="B181">
         <v>2</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>232</v>
+      <c r="C181" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,8 +3272,9 @@
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>232</v>
+      <c r="C182" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,8 +3284,9 @@
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>232</v>
+      <c r="C183" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,8 +3296,9 @@
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>232</v>
+      <c r="C184" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,8 +3308,9 @@
       <c r="B185">
         <v>0</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>232</v>
+      <c r="C185" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,8 +3320,9 @@
       <c r="B186">
         <v>0</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>232</v>
+      <c r="C186" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,8 +3332,9 @@
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>232</v>
+      <c r="C187" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,8 +3344,9 @@
       <c r="B188">
         <v>0</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>232</v>
+      <c r="C188" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,8 +3356,9 @@
       <c r="B189">
         <v>0</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>232</v>
+      <c r="C189" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,8 +3368,9 @@
       <c r="B190">
         <v>0</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>232</v>
+      <c r="C190" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,8 +3380,9 @@
       <c r="B191">
         <v>0</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>232</v>
+      <c r="C191" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,8 +3392,9 @@
       <c r="B192">
         <v>0</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>232</v>
+      <c r="C192" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,8 +3404,9 @@
       <c r="B193">
         <v>0</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>232</v>
+      <c r="C193" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,8 +3416,9 @@
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>232</v>
+      <c r="C194" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3227,8 +3428,9 @@
       <c r="B195">
         <v>0</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>232</v>
+      <c r="C195" s="1">
+        <f t="shared" ref="C195:C230" si="3">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3238,8 +3440,9 @@
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>232</v>
+      <c r="C196" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,8 +3452,9 @@
       <c r="B197">
         <v>0</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>232</v>
+      <c r="C197" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3260,8 +3464,9 @@
       <c r="B198">
         <v>0</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>232</v>
+      <c r="C198" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3271,8 +3476,9 @@
       <c r="B199">
         <v>0</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>232</v>
+      <c r="C199" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3282,8 +3488,9 @@
       <c r="B200">
         <v>9</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>232</v>
+      <c r="C200" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3293,8 +3500,9 @@
       <c r="B201">
         <v>0</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>232</v>
+      <c r="C201" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3304,8 +3512,9 @@
       <c r="B202">
         <v>0</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>232</v>
+      <c r="C202" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3315,8 +3524,9 @@
       <c r="B203">
         <v>0</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>232</v>
+      <c r="C203" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,8 +3536,9 @@
       <c r="B204">
         <v>0</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>232</v>
+      <c r="C204" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3337,8 +3548,9 @@
       <c r="B205">
         <v>0</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>232</v>
+      <c r="C205" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3348,8 +3560,9 @@
       <c r="B206">
         <v>0</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>232</v>
+      <c r="C206" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3359,8 +3572,9 @@
       <c r="B207">
         <v>0</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>232</v>
+      <c r="C207" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3370,8 +3584,9 @@
       <c r="B208">
         <v>0</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>232</v>
+      <c r="C208" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3381,8 +3596,9 @@
       <c r="B209">
         <v>0</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>232</v>
+      <c r="C209" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3392,8 +3608,9 @@
       <c r="B210">
         <v>0</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>232</v>
+      <c r="C210" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,8 +3620,9 @@
       <c r="B211">
         <v>0</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>232</v>
+      <c r="C211" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3414,8 +3632,9 @@
       <c r="B212">
         <v>0</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>232</v>
+      <c r="C212" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3425,8 +3644,9 @@
       <c r="B213">
         <v>0</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>232</v>
+      <c r="C213" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,8 +3656,9 @@
       <c r="B214">
         <v>0</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>232</v>
+      <c r="C214" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3447,8 +3668,9 @@
       <c r="B215">
         <v>0</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>232</v>
+      <c r="C215" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,8 +3680,9 @@
       <c r="B216">
         <v>0</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>232</v>
+      <c r="C216" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3469,8 +3692,9 @@
       <c r="B217">
         <v>0</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>232</v>
+      <c r="C217" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,8 +3704,9 @@
       <c r="B218">
         <v>0</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>232</v>
+      <c r="C218" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3491,8 +3716,9 @@
       <c r="B219">
         <v>0</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>232</v>
+      <c r="C219" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,8 +3728,9 @@
       <c r="B220">
         <v>0</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>232</v>
+      <c r="C220" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3513,8 +3740,9 @@
       <c r="B221">
         <v>0</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>232</v>
+      <c r="C221" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,8 +3752,9 @@
       <c r="B222">
         <v>0</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>232</v>
+      <c r="C222" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,8 +3764,9 @@
       <c r="B223">
         <v>0</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>232</v>
+      <c r="C223" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,8 +3776,9 @@
       <c r="B224">
         <v>0</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>232</v>
+      <c r="C224" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,8 +3788,9 @@
       <c r="B225">
         <v>0</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>232</v>
+      <c r="C225" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,8 +3800,9 @@
       <c r="B226">
         <v>0</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>232</v>
+      <c r="C226" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,8 +3812,9 @@
       <c r="B227">
         <v>0</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>232</v>
+      <c r="C227" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,8 +3824,9 @@
       <c r="B228">
         <v>0</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>232</v>
+      <c r="C228" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,8 +3836,9 @@
       <c r="B229">
         <v>0</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>232</v>
+      <c r="C229" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,8 +3848,9 @@
       <c r="B230">
         <v>0</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>232</v>
+      <c r="C230" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
   </sheetData>
